--- a/SRA2024-G07-项目计划/绩效评价表.xlsx
+++ b/SRA2024-G07-项目计划/绩效评价表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TabooZ\Desktop\需求分析\SRA2024-G07-项目计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C903C6E7-5BBD-4B96-B57A-B0D13B9061C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27122FB3-B53D-4639-A83A-C072CD7F2E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="17">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +98,10 @@
   </si>
   <si>
     <t>第2周项目计划及UML图工作评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3周项目计划及UML翻转课堂工作评价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -260,6 +273,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -267,21 +295,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -382,6 +395,108 @@
         <a:xfrm>
           <a:off x="6350" y="181610"/>
           <a:ext cx="588010" cy="486410"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直接连接符 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F8E3A66-C94D-482F-AD4C-8FC882C0E9BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6350" y="2292350"/>
+          <a:ext cx="588010" cy="486410"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="直接连接符 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D95BE04-3936-467F-B211-BB8D6BB79C6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6350" y="4403090"/>
+          <a:ext cx="588010" cy="341630"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -671,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -683,30 +798,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="A1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
@@ -715,7 +830,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="9"/>
       <c r="C3" s="2" t="s">
         <v>0</v>
@@ -868,30 +983,30 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12"/>
       <c r="G11" s="8" t="s">
         <v>6</v>
       </c>
@@ -900,7 +1015,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="9"/>
       <c r="C12" s="2" t="s">
         <v>0</v>
@@ -1052,8 +1167,384 @@
         <v>10.65</v>
       </c>
     </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="3">
+        <v>8</v>
+      </c>
+      <c r="C22" s="3">
+        <v>9</v>
+      </c>
+      <c r="D22" s="3">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
+        <f>(B22*0.5+AVERAGE(C22:F22)*0.5)*G22</f>
+        <v>8.125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="4">
+        <v>9</v>
+      </c>
+      <c r="C23" s="4">
+        <v>9</v>
+      </c>
+      <c r="D23" s="4">
+        <v>8</v>
+      </c>
+      <c r="E23" s="4">
+        <v>9</v>
+      </c>
+      <c r="F23" s="4">
+        <v>9</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" ref="H23:H26" si="3">(B23*0.5+AVERAGE(C23:F23)*0.5)*G23</f>
+        <v>7.1000000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="3">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3">
+        <v>8</v>
+      </c>
+      <c r="D24" s="3">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3">
+        <v>7</v>
+      </c>
+      <c r="F24" s="3">
+        <v>8</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="3"/>
+        <v>8.375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="4">
+        <v>9</v>
+      </c>
+      <c r="C25" s="4">
+        <v>9</v>
+      </c>
+      <c r="D25" s="4">
+        <v>8</v>
+      </c>
+      <c r="E25" s="4">
+        <v>8</v>
+      </c>
+      <c r="F25" s="4">
+        <v>9</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="3"/>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="3">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3">
+        <v>9</v>
+      </c>
+      <c r="D26" s="3">
+        <v>9</v>
+      </c>
+      <c r="E26" s="3">
+        <v>9</v>
+      </c>
+      <c r="F26" s="3">
+        <v>8</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="3"/>
+        <v>8.875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="3">
+        <v>8</v>
+      </c>
+      <c r="C31" s="3">
+        <v>8</v>
+      </c>
+      <c r="D31" s="3">
+        <v>8</v>
+      </c>
+      <c r="E31" s="3">
+        <v>8</v>
+      </c>
+      <c r="F31" s="3">
+        <v>8</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3">
+        <f>(B31*0.5+AVERAGE(C31:F31)*0.5)*G31</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="4">
+        <v>8</v>
+      </c>
+      <c r="C32" s="4">
+        <v>9</v>
+      </c>
+      <c r="D32" s="4">
+        <v>8</v>
+      </c>
+      <c r="E32" s="4">
+        <v>9</v>
+      </c>
+      <c r="F32" s="4">
+        <v>9</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="H32" s="4">
+        <f t="shared" ref="H32:H35" si="4">(B32*0.5+AVERAGE(C32:F32)*0.5)*G32</f>
+        <v>8.375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="3">
+        <v>8</v>
+      </c>
+      <c r="C33" s="3">
+        <v>8</v>
+      </c>
+      <c r="D33" s="3">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
+        <v>9</v>
+      </c>
+      <c r="F33" s="3">
+        <v>8</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="4"/>
+        <v>8.125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="4">
+        <v>9</v>
+      </c>
+      <c r="C34" s="4">
+        <v>8</v>
+      </c>
+      <c r="D34" s="4">
+        <v>7</v>
+      </c>
+      <c r="E34" s="4">
+        <v>7</v>
+      </c>
+      <c r="F34" s="4">
+        <v>9</v>
+      </c>
+      <c r="G34" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="H34" s="4">
+        <f t="shared" si="4"/>
+        <v>10.049999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="3">
+        <v>9</v>
+      </c>
+      <c r="C35" s="3">
+        <v>9</v>
+      </c>
+      <c r="D35" s="3">
+        <v>9</v>
+      </c>
+      <c r="E35" s="3">
+        <v>9</v>
+      </c>
+      <c r="F35" s="3">
+        <v>9</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="24">
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:A12"/>
@@ -1066,14 +1557,21 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G8 G13:G17" xr:uid="{DB3152E3-A5C5-4E3C-8222-AEAC7C662D0C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G8 G13:G17 G22:G26 G31:G35" xr:uid="{DB3152E3-A5C5-4E3C-8222-AEAC7C662D0C}">
       <formula1>"0.8,1.0,1.2"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/SRA2024-G07-项目计划/绩效评价表.xlsx
+++ b/SRA2024-G07-项目计划/绩效评价表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TabooZ\Desktop\需求分析\SRA2024-G07-项目计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27122FB3-B53D-4639-A83A-C072CD7F2E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63906270-1ADB-403E-B9F7-FC73991B054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="20">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +93,18 @@
   </si>
   <si>
     <t>第3周项目计划及UML翻转课堂工作评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第4周项目计划及UML翻转课堂工作评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第5周项目计划及UML翻转课堂工作评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRS工作评价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,6 +523,108 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直接连接符 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{080ACDDB-4F9A-459B-86D9-B6B1C093E3C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6350" y="5980430"/>
+          <a:ext cx="588010" cy="341630"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直接连接符 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E9B982F-ED26-4035-B7C8-F8EFFD7EFC65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6350" y="181610"/>
+          <a:ext cx="588010" cy="486410"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -786,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -797,7 +902,7 @@
     <col min="1" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -808,8 +913,18 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+    </row>
+    <row r="2" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -828,8 +943,26 @@
       <c r="H2" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="9"/>
       <c r="C3" s="2" t="s">
@@ -846,8 +979,24 @@
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="7"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+    </row>
+    <row r="4" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -873,8 +1022,33 @@
         <f>(B4*0.5+AVERAGE(C4:F4)*0.5)*G4</f>
         <v>9.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="3">
+        <v>10</v>
+      </c>
+      <c r="O4" s="3">
+        <v>10</v>
+      </c>
+      <c r="P4" s="3">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>10</v>
+      </c>
+      <c r="R4" s="3">
+        <v>8</v>
+      </c>
+      <c r="S4" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="T4" s="3">
+        <f>(N4*0.5+AVERAGE(O4:R4)*0.5)*S4</f>
+        <v>11.549999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -900,8 +1074,33 @@
         <f t="shared" ref="H5:H7" si="0">(B5*0.5+AVERAGE(C5:F5)*0.5)*G5</f>
         <v>8.25</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="4">
+        <v>8</v>
+      </c>
+      <c r="O5" s="4">
+        <v>9</v>
+      </c>
+      <c r="P5" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>9</v>
+      </c>
+      <c r="R5" s="4">
+        <v>6</v>
+      </c>
+      <c r="S5" s="4">
+        <v>1</v>
+      </c>
+      <c r="T5" s="4">
+        <f t="shared" ref="T5:T8" si="1">(N5*0.5+AVERAGE(O5:R5)*0.5)*S5</f>
+        <v>8.125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -927,8 +1126,33 @@
         <f t="shared" si="0"/>
         <v>8.625</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="3">
+        <v>9</v>
+      </c>
+      <c r="O6" s="3">
+        <v>9</v>
+      </c>
+      <c r="P6" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>7</v>
+      </c>
+      <c r="R6" s="3">
+        <v>8</v>
+      </c>
+      <c r="S6" s="3">
+        <v>1</v>
+      </c>
+      <c r="T6" s="3">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -954,8 +1178,33 @@
         <f t="shared" si="0"/>
         <v>7.75</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="4">
+        <v>9</v>
+      </c>
+      <c r="O7" s="4">
+        <v>8</v>
+      </c>
+      <c r="P7" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>7</v>
+      </c>
+      <c r="R7" s="4">
+        <v>8</v>
+      </c>
+      <c r="S7" s="4">
+        <v>1</v>
+      </c>
+      <c r="T7" s="4">
+        <f t="shared" si="1"/>
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -978,11 +1227,36 @@
         <v>1</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" ref="H8" si="1">(B8*0.5+AVERAGE(C8:F8)*0.5)*G8</f>
+        <f t="shared" ref="H8" si="2">(B8*0.5+AVERAGE(C8:F8)*0.5)*G8</f>
         <v>8.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" s="3">
+        <v>8</v>
+      </c>
+      <c r="O8" s="3">
+        <v>8</v>
+      </c>
+      <c r="P8" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>8</v>
+      </c>
+      <c r="R8" s="3">
+        <v>8</v>
+      </c>
+      <c r="S8" s="3">
+        <v>1</v>
+      </c>
+      <c r="T8" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
@@ -994,7 +1268,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -1014,7 +1288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="9"/>
       <c r="C12" s="2" t="s">
@@ -1032,7 +1306,7 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -1059,7 +1333,7 @@
         <v>10.35</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -1082,11 +1356,11 @@
         <v>0.8</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" ref="H14:H17" si="2">(B14*0.5+AVERAGE(C14:F14)*0.5)*G14</f>
+        <f t="shared" ref="H14:H17" si="3">(B14*0.5+AVERAGE(C14:F14)*0.5)*G14</f>
         <v>6.3000000000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -1109,11 +1383,11 @@
         <v>1</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.375</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
@@ -1136,7 +1410,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.75</v>
       </c>
     </row>
@@ -1163,7 +1437,7 @@
         <v>1.2</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.65</v>
       </c>
     </row>
@@ -1267,7 +1541,7 @@
         <v>0.8</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" ref="H23:H26" si="3">(B23*0.5+AVERAGE(C23:F23)*0.5)*G23</f>
+        <f t="shared" ref="H23:H26" si="4">(B23*0.5+AVERAGE(C23:F23)*0.5)*G23</f>
         <v>7.1000000000000005</v>
       </c>
     </row>
@@ -1294,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.375</v>
       </c>
     </row>
@@ -1321,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.75</v>
       </c>
     </row>
@@ -1348,13 +1622,13 @@
         <v>1</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.875</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1452,7 +1726,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" ref="H32:H35" si="4">(B32*0.5+AVERAGE(C32:F32)*0.5)*G32</f>
+        <f t="shared" ref="H32:H35" si="5">(B32*0.5+AVERAGE(C32:F32)*0.5)*G32</f>
         <v>8.375</v>
       </c>
     </row>
@@ -1479,7 +1753,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.125</v>
       </c>
     </row>
@@ -1506,7 +1780,7 @@
         <v>1.2</v>
       </c>
       <c r="H34" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10.049999999999999</v>
       </c>
     </row>
@@ -1533,12 +1807,203 @@
         <v>1</v>
       </c>
       <c r="H35" s="3">
-        <f t="shared" si="4"/>
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="3">
+        <v>9</v>
+      </c>
+      <c r="C40" s="3">
+        <v>8</v>
+      </c>
+      <c r="D40" s="3">
+        <v>8</v>
+      </c>
+      <c r="E40" s="3">
+        <v>8</v>
+      </c>
+      <c r="F40" s="3">
+        <v>8</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1</v>
+      </c>
+      <c r="H40" s="3">
+        <f>(B40*0.5+AVERAGE(C40:F40)*0.5)*G40</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="4">
+        <v>8</v>
+      </c>
+      <c r="C41" s="4">
+        <v>9</v>
+      </c>
+      <c r="D41" s="4">
+        <v>8</v>
+      </c>
+      <c r="E41" s="4">
+        <v>9</v>
+      </c>
+      <c r="F41" s="4">
+        <v>9</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+      <c r="H41" s="4">
+        <f t="shared" ref="H41:H44" si="6">(B41*0.5+AVERAGE(C41:F41)*0.5)*G41</f>
+        <v>8.375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="3">
+        <v>8</v>
+      </c>
+      <c r="C42" s="3">
+        <v>8</v>
+      </c>
+      <c r="D42" s="3">
+        <v>8</v>
+      </c>
+      <c r="E42" s="3">
+        <v>9</v>
+      </c>
+      <c r="F42" s="3">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="6"/>
+        <v>8.125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="4">
+        <v>10</v>
+      </c>
+      <c r="C43" s="4">
+        <v>8</v>
+      </c>
+      <c r="D43" s="4">
+        <v>7</v>
+      </c>
+      <c r="E43" s="4">
+        <v>8</v>
+      </c>
+      <c r="F43" s="4">
+        <v>9</v>
+      </c>
+      <c r="G43" s="4">
+        <v>1</v>
+      </c>
+      <c r="H43" s="4">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="3">
+        <v>9</v>
+      </c>
+      <c r="C44" s="3">
+        <v>9</v>
+      </c>
+      <c r="D44" s="3">
+        <v>9</v>
+      </c>
+      <c r="E44" s="3">
+        <v>9</v>
+      </c>
+      <c r="F44" s="3">
+        <v>9</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" si="6"/>
+        <v>10.799999999999999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="36">
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
     <mergeCell ref="A28:H28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B29:B30"/>
@@ -1563,10 +2028,16 @@
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="H20:H21"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G8 G13:G17 G22:G26 G31:G35" xr:uid="{DB3152E3-A5C5-4E3C-8222-AEAC7C662D0C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G8 G13:G17 G22:G26 G31:G35 G40:G44 S4:S8" xr:uid="{DB3152E3-A5C5-4E3C-8222-AEAC7C662D0C}">
       <formula1>"0.8,1.0,1.2"</formula1>
     </dataValidation>
   </dataValidations>

--- a/SRA2024-G07-项目计划/绩效评价表.xlsx
+++ b/SRA2024-G07-项目计划/绩效评价表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TabooZ\Desktop\需求分析\SRA2024-G07-项目计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63906270-1ADB-403E-B9F7-FC73991B054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF21C48-AC54-469B-B6F0-8816CD7639D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="24">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +114,22 @@
   </si>
   <si>
     <t>SRS工作评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UML基础：对象图、构件图、包图工作评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UML综合应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求变更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -625,6 +650,210 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直接连接符 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E47E0515-D8B2-4B0F-A048-8001A2E08CF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7138670" y="181610"/>
+          <a:ext cx="588010" cy="486410"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直接连接符 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6EF80EC-2063-4534-8CB0-B3F46417CC9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7138670" y="2292350"/>
+          <a:ext cx="588010" cy="486410"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直接连接符 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{205A0E35-A00D-4F6F-94D0-6845EEB850FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7138670" y="4403090"/>
+          <a:ext cx="588010" cy="341630"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直接连接符 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A9F6E2B-B7D8-418C-9FD4-BC54DDEDA0A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7138670" y="5980430"/>
+          <a:ext cx="588010" cy="341630"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -893,13 +1122,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="T40" sqref="T40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="19" width="8.6640625" style="1"/>
+    <col min="20" max="20" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -1267,6 +1498,16 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
+      <c r="M10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
     </row>
     <row r="11" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -1287,6 +1528,24 @@
       <c r="H11" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="M11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
@@ -1305,6 +1564,22 @@
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
     </row>
     <row r="13" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -1332,6 +1607,31 @@
         <f>(B13*0.5+AVERAGE(C13:F13)*0.5)*G13</f>
         <v>10.35</v>
       </c>
+      <c r="M13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="3">
+        <v>8</v>
+      </c>
+      <c r="O13" s="3">
+        <v>8</v>
+      </c>
+      <c r="P13" s="3">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>7</v>
+      </c>
+      <c r="R13" s="3">
+        <v>9</v>
+      </c>
+      <c r="S13" s="3">
+        <v>1</v>
+      </c>
+      <c r="T13" s="3">
+        <f>(N13*0.5+AVERAGE(O13:R13)*0.5)*S13</f>
+        <v>8.125</v>
+      </c>
     </row>
     <row r="14" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -1359,6 +1659,31 @@
         <f t="shared" ref="H14:H17" si="3">(B14*0.5+AVERAGE(C14:F14)*0.5)*G14</f>
         <v>6.3000000000000007</v>
       </c>
+      <c r="M14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" s="4">
+        <v>9</v>
+      </c>
+      <c r="O14" s="4">
+        <v>9</v>
+      </c>
+      <c r="P14" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>9</v>
+      </c>
+      <c r="R14" s="4">
+        <v>6</v>
+      </c>
+      <c r="S14" s="4">
+        <v>1</v>
+      </c>
+      <c r="T14" s="4">
+        <f t="shared" ref="T14:T17" si="4">(N14*0.5+AVERAGE(O14:R14)*0.5)*S14</f>
+        <v>8.625</v>
+      </c>
     </row>
     <row r="15" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -1386,6 +1711,31 @@
         <f t="shared" si="3"/>
         <v>8.375</v>
       </c>
+      <c r="M15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="3">
+        <v>9</v>
+      </c>
+      <c r="O15" s="3">
+        <v>9</v>
+      </c>
+      <c r="P15" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>7</v>
+      </c>
+      <c r="R15" s="3">
+        <v>8</v>
+      </c>
+      <c r="S15" s="3">
+        <v>1</v>
+      </c>
+      <c r="T15" s="3">
+        <f t="shared" si="4"/>
+        <v>8.5</v>
+      </c>
     </row>
     <row r="16" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -1413,8 +1763,33 @@
         <f t="shared" si="3"/>
         <v>8.75</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N16" s="4">
+        <v>9</v>
+      </c>
+      <c r="O16" s="4">
+        <v>8</v>
+      </c>
+      <c r="P16" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>7</v>
+      </c>
+      <c r="R16" s="4">
+        <v>8</v>
+      </c>
+      <c r="S16" s="4">
+        <v>1</v>
+      </c>
+      <c r="T16" s="4">
+        <f t="shared" si="4"/>
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -1440,8 +1815,33 @@
         <f t="shared" si="3"/>
         <v>10.65</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N17" s="3">
+        <v>10</v>
+      </c>
+      <c r="O17" s="3">
+        <v>9</v>
+      </c>
+      <c r="P17" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>9</v>
+      </c>
+      <c r="R17" s="3">
+        <v>9</v>
+      </c>
+      <c r="S17" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="T17" s="3">
+        <f t="shared" si="4"/>
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>16</v>
       </c>
@@ -1452,8 +1852,18 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>8</v>
       </c>
@@ -1472,8 +1882,26 @@
       <c r="H20" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T20" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="9"/>
       <c r="C21" s="2" t="s">
@@ -1490,8 +1918,24 @@
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M21" s="7"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>10</v>
       </c>
@@ -1517,8 +1961,33 @@
         <f>(B22*0.5+AVERAGE(C22:F22)*0.5)*G22</f>
         <v>8.125</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" s="3">
+        <v>8</v>
+      </c>
+      <c r="O22" s="3">
+        <v>8</v>
+      </c>
+      <c r="P22" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>7</v>
+      </c>
+      <c r="R22" s="3">
+        <v>8</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="T22" s="3">
+        <f>(N22*0.5+AVERAGE(O22:R22)*0.5)*S22</f>
+        <v>6.1000000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
@@ -1541,11 +2010,36 @@
         <v>0.8</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" ref="H23:H26" si="4">(B23*0.5+AVERAGE(C23:F23)*0.5)*G23</f>
+        <f t="shared" ref="H23:H26" si="5">(B23*0.5+AVERAGE(C23:F23)*0.5)*G23</f>
         <v>7.1000000000000005</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N23" s="4">
+        <v>9</v>
+      </c>
+      <c r="O23" s="4">
+        <v>9</v>
+      </c>
+      <c r="P23" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>9</v>
+      </c>
+      <c r="R23" s="4">
+        <v>6</v>
+      </c>
+      <c r="S23" s="4">
+        <v>1</v>
+      </c>
+      <c r="T23" s="4">
+        <f t="shared" ref="T23:T26" si="6">(N23*0.5+AVERAGE(O23:R23)*0.5)*S23</f>
+        <v>8.625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>12</v>
       </c>
@@ -1568,11 +2062,36 @@
         <v>1</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.375</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="3">
+        <v>9</v>
+      </c>
+      <c r="O24" s="3">
+        <v>9</v>
+      </c>
+      <c r="P24" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>7</v>
+      </c>
+      <c r="R24" s="3">
+        <v>8</v>
+      </c>
+      <c r="S24" s="3">
+        <v>1</v>
+      </c>
+      <c r="T24" s="3">
+        <f t="shared" si="6"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>13</v>
       </c>
@@ -1595,11 +2114,36 @@
         <v>1</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.75</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N25" s="4">
+        <v>8</v>
+      </c>
+      <c r="O25" s="4">
+        <v>8</v>
+      </c>
+      <c r="P25" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>7</v>
+      </c>
+      <c r="R25" s="4">
+        <v>8</v>
+      </c>
+      <c r="S25" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="T25" s="4">
+        <f t="shared" si="6"/>
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>14</v>
       </c>
@@ -1622,11 +2166,36 @@
         <v>1</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.875</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N26" s="3">
+        <v>9</v>
+      </c>
+      <c r="O26" s="3">
+        <v>9</v>
+      </c>
+      <c r="P26" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>9</v>
+      </c>
+      <c r="R26" s="3">
+        <v>9</v>
+      </c>
+      <c r="S26" s="3">
+        <v>1</v>
+      </c>
+      <c r="T26" s="3">
+        <f t="shared" si="6"/>
+        <v>8.875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>17</v>
       </c>
@@ -1637,8 +2206,18 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>8</v>
       </c>
@@ -1657,8 +2236,26 @@
       <c r="H29" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T29" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="9"/>
       <c r="C30" s="2" t="s">
@@ -1675,8 +2272,24 @@
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M30" s="7"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>10</v>
       </c>
@@ -1702,8 +2315,33 @@
         <f>(B31*0.5+AVERAGE(C31:F31)*0.5)*G31</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N31" s="3">
+        <v>9</v>
+      </c>
+      <c r="O31" s="3">
+        <v>10</v>
+      </c>
+      <c r="P31" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>7</v>
+      </c>
+      <c r="R31" s="3">
+        <v>8</v>
+      </c>
+      <c r="S31" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="T31" s="3">
+        <f>(N31*0.5+AVERAGE(O31:R31)*0.5)*S31</f>
+        <v>10.35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>11</v>
       </c>
@@ -1726,11 +2364,36 @@
         <v>1</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" ref="H32:H35" si="5">(B32*0.5+AVERAGE(C32:F32)*0.5)*G32</f>
+        <f t="shared" ref="H32:H35" si="7">(B32*0.5+AVERAGE(C32:F32)*0.5)*G32</f>
         <v>8.375</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N32" s="4">
+        <v>8</v>
+      </c>
+      <c r="O32" s="4">
+        <v>9</v>
+      </c>
+      <c r="P32" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>9</v>
+      </c>
+      <c r="R32" s="4">
+        <v>6</v>
+      </c>
+      <c r="S32" s="4">
+        <v>1</v>
+      </c>
+      <c r="T32" s="4">
+        <f t="shared" ref="T32:T35" si="8">(N32*0.5+AVERAGE(O32:R32)*0.5)*S32</f>
+        <v>8.125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>12</v>
       </c>
@@ -1753,11 +2416,36 @@
         <v>1</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.125</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N33" s="3">
+        <v>9</v>
+      </c>
+      <c r="O33" s="3">
+        <v>9</v>
+      </c>
+      <c r="P33" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>7</v>
+      </c>
+      <c r="R33" s="3">
+        <v>8</v>
+      </c>
+      <c r="S33" s="3">
+        <v>1</v>
+      </c>
+      <c r="T33" s="3">
+        <f t="shared" si="8"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>13</v>
       </c>
@@ -1780,11 +2468,36 @@
         <v>1.2</v>
       </c>
       <c r="H34" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10.049999999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N34" s="4">
+        <v>10</v>
+      </c>
+      <c r="O34" s="4">
+        <v>9</v>
+      </c>
+      <c r="P34" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>8</v>
+      </c>
+      <c r="R34" s="4">
+        <v>9</v>
+      </c>
+      <c r="S34" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="T34" s="4">
+        <f t="shared" si="8"/>
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>14</v>
       </c>
@@ -1807,11 +2520,36 @@
         <v>1</v>
       </c>
       <c r="H35" s="3">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N35" s="3">
+        <v>9</v>
+      </c>
+      <c r="O35" s="3">
+        <v>9</v>
+      </c>
+      <c r="P35" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>9</v>
+      </c>
+      <c r="R35" s="3">
+        <v>9</v>
+      </c>
+      <c r="S35" s="3">
+        <v>1</v>
+      </c>
+      <c r="T35" s="3">
+        <f t="shared" si="8"/>
+        <v>8.875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>18</v>
       </c>
@@ -1822,8 +2560,18 @@
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>8</v>
       </c>
@@ -1842,8 +2590,26 @@
       <c r="H38" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O38" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T38" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="9"/>
       <c r="C39" s="2" t="s">
@@ -1860,8 +2626,24 @@
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M39" s="7"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>10</v>
       </c>
@@ -1887,8 +2669,21 @@
         <f>(B40*0.5+AVERAGE(C40:F40)*0.5)*G40</f>
         <v>8.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3">
+        <f>AVERAGE(H4,H13,H22,H31,H40,T4,T13,T22,T31)</f>
+        <v>8.9999999999999982</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>11</v>
       </c>
@@ -1911,11 +2706,24 @@
         <v>1</v>
       </c>
       <c r="H41" s="4">
-        <f t="shared" ref="H41:H44" si="6">(B41*0.5+AVERAGE(C41:F41)*0.5)*G41</f>
+        <f t="shared" ref="H41:H44" si="9">(B41*0.5+AVERAGE(C41:F41)*0.5)*G41</f>
         <v>8.375</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4">
+        <f>AVERAGE(H14,H23,H32,H41,T14,T23,T32)</f>
+        <v>7.9321428571428578</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>12</v>
       </c>
@@ -1938,11 +2746,24 @@
         <v>1</v>
       </c>
       <c r="H42" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8.125</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3">
+        <f>AVERAGE(H24,H33,H42,T24,T33,T15,H15)</f>
+        <v>8.3571428571428577</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>13</v>
       </c>
@@ -1965,11 +2786,24 @@
         <v>1</v>
       </c>
       <c r="H43" s="4">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4">
+        <f>AVERAGE(H25,H34,H43,T25,T34,T16,H16,H7,T7)</f>
+        <v>8.6944444444444446</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>14</v>
       </c>
@@ -1992,12 +2826,37 @@
         <v>1.2</v>
       </c>
       <c r="H44" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>10.799999999999999</v>
       </c>
+      <c r="M44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3">
+        <f>AVERAGE(H8,H17,H26,H35,H44,T8,T17,T26,T35)</f>
+        <v>9.4249999999999989</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="60">
+    <mergeCell ref="M37:T37"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="S38:S39"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="M19:T19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="T20:T21"/>
     <mergeCell ref="M1:T1"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
@@ -2034,10 +2893,22 @@
     <mergeCell ref="C38:F38"/>
     <mergeCell ref="G38:G39"/>
     <mergeCell ref="H38:H39"/>
+    <mergeCell ref="M10:T10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="M28:T28"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="T29:T30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G8 G13:G17 G22:G26 G31:G35 G40:G44 S4:S8" xr:uid="{DB3152E3-A5C5-4E3C-8222-AEAC7C662D0C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G8 G13:G17 G22:G26 G31:G35 G40:G44 S4:S8 S13:S17 S22:S26 S31:S35 S40:S44" xr:uid="{DB3152E3-A5C5-4E3C-8222-AEAC7C662D0C}">
       <formula1>"0.8,1.0,1.2"</formula1>
     </dataValidation>
   </dataValidations>
